--- a/WindowsFormsApp1/Properties/BoolDB.xlsx
+++ b/WindowsFormsApp1/Properties/BoolDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdste\source\repos\AlgorithmApplication\WindowsFormsApp1\DataStreams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgorithmApplication\WindowsFormsApp1\Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE799358-AB3B-46F7-B55A-945A5A9671A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC6E1E-886F-4DBB-8F3A-0A748C5A6847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4940201-DDB5-4D1F-ACD8-FDFA0D098141}"/>
+    <workbookView xWindow="456" yWindow="5964" windowWidth="15756" windowHeight="11148" xr2:uid="{E4940201-DDB5-4D1F-ACD8-FDFA0D098141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,21 +383,22 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <f t="shared" ref="A1:A66" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1">
         <f ca="1">COUNTIF(A1:A500,D1)</f>
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G1">
         <f ca="1">_xlfn.XLOOKUP(MAX(E1:E2),E1:E2,D1:D2)</f>
@@ -406,20 +407,20 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f ca="1" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f ca="1">COUNTIF(A1:A500,D2)</f>
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A66" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(0,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -432,7 +433,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -462,7 +463,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -480,7 +481,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -492,7 +493,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -504,7 +505,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -522,7 +523,7 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -540,25 +541,25 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -576,7 +577,7 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -588,7 +589,7 @@
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -618,7 +619,7 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -636,7 +637,7 @@
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -654,31 +655,31 @@
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -690,7 +691,7 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -708,13 +709,13 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
@@ -738,19 +739,19 @@
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -762,7 +763,7 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
@@ -780,19 +781,19 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
@@ -810,13 +811,13 @@
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
@@ -840,7 +841,7 @@
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -852,7 +853,7 @@
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -870,19 +871,19 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -906,7 +907,7 @@
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -918,13 +919,13 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
@@ -948,13 +949,13 @@
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
@@ -966,7 +967,7 @@
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -978,7 +979,7 @@
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -990,19 +991,19 @@
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
@@ -1014,7 +1015,7 @@
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
@@ -1026,13 +1027,13 @@
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
@@ -1050,25 +1051,25 @@
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
@@ -1092,7 +1093,7 @@
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
@@ -1110,7 +1111,7 @@
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
@@ -1158,19 +1159,19 @@
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -1188,31 +1189,31 @@
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" ref="A131:A194" ca="1" si="2" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
@@ -1224,19 +1225,19 @@
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
@@ -1260,19 +1261,19 @@
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
@@ -1290,7 +1291,7 @@
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
@@ -1314,31 +1315,31 @@
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
@@ -1386,13 +1387,13 @@
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
@@ -1416,7 +1417,7 @@
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
@@ -1428,13 +1429,13 @@
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
@@ -1446,7 +1447,7 @@
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
@@ -1476,7 +1477,7 @@
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
@@ -1488,7 +1489,7 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
@@ -1506,13 +1507,13 @@
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
@@ -1536,13 +1537,13 @@
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
@@ -1572,7 +1573,7 @@
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" ref="A195:A258" ca="1" si="3" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
@@ -1614,7 +1615,7 @@
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
@@ -1632,7 +1633,7 @@
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
@@ -1662,7 +1663,7 @@
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
@@ -1680,7 +1681,7 @@
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
@@ -1692,7 +1693,7 @@
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
@@ -1704,7 +1705,7 @@
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
@@ -1716,13 +1717,13 @@
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
@@ -1740,13 +1741,13 @@
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
@@ -1758,19 +1759,19 @@
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
@@ -1794,13 +1795,13 @@
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
@@ -1824,7 +1825,7 @@
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
@@ -1836,7 +1837,7 @@
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
@@ -1860,7 +1861,7 @@
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
@@ -1878,7 +1879,7 @@
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
@@ -1896,7 +1897,7 @@
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
@@ -1914,25 +1915,25 @@
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
@@ -1950,13 +1951,13 @@
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" ref="A259:A322" ca="1" si="4" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
@@ -1968,7 +1969,7 @@
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
@@ -1980,43 +1981,43 @@
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
@@ -2028,7 +2029,7 @@
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
@@ -2040,13 +2041,13 @@
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
@@ -2064,7 +2065,7 @@
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
@@ -2082,13 +2083,13 @@
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
@@ -2100,7 +2101,7 @@
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
@@ -2136,13 +2137,13 @@
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
@@ -2160,13 +2161,13 @@
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
@@ -2178,13 +2179,13 @@
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
@@ -2202,13 +2203,13 @@
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
@@ -2226,7 +2227,7 @@
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
@@ -2256,13 +2257,13 @@
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
@@ -2274,7 +2275,7 @@
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
@@ -2292,7 +2293,7 @@
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
@@ -2316,7 +2317,7 @@
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
@@ -2328,61 +2329,61 @@
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" ref="A323:A386" ca="1" si="5" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
@@ -2394,7 +2395,7 @@
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
@@ -2412,7 +2413,7 @@
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
@@ -2430,7 +2431,7 @@
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
@@ -2442,7 +2443,7 @@
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
@@ -2454,7 +2455,7 @@
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
@@ -2472,37 +2473,37 @@
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
@@ -2520,13 +2521,13 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
@@ -2544,13 +2545,13 @@
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
@@ -2568,25 +2569,25 @@
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
@@ -2610,13 +2611,13 @@
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
@@ -2634,13 +2635,13 @@
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
@@ -2658,7 +2659,7 @@
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
@@ -2676,13 +2677,13 @@
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
@@ -2700,31 +2701,31 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
         <f t="shared" ref="A387:A450" ca="1" si="6" xml:space="preserve"> RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
@@ -2754,13 +2755,13 @@
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
@@ -2772,13 +2773,13 @@
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
@@ -2796,7 +2797,7 @@
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
@@ -2808,13 +2809,13 @@
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
@@ -2826,7 +2827,7 @@
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
@@ -2862,7 +2863,7 @@
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
@@ -2880,7 +2881,7 @@
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
@@ -2898,13 +2899,13 @@
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
@@ -2916,7 +2917,7 @@
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
@@ -2928,7 +2929,7 @@
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
@@ -2964,7 +2965,7 @@
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
@@ -2988,7 +2989,7 @@
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
@@ -3006,7 +3007,7 @@
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
@@ -3018,13 +3019,13 @@
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
@@ -3042,13 +3043,13 @@
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
@@ -3060,13 +3061,13 @@
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
@@ -3078,19 +3079,19 @@
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
@@ -3120,7 +3121,7 @@
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
@@ -3138,13 +3139,13 @@
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
@@ -3156,7 +3157,7 @@
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
@@ -3180,43 +3181,43 @@
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
@@ -3240,13 +3241,13 @@
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
@@ -3258,7 +3259,7 @@
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
@@ -3270,7 +3271,7 @@
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
@@ -3294,7 +3295,7 @@
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
@@ -3312,13 +3313,13 @@
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
@@ -3336,13 +3337,13 @@
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
@@ -3360,7 +3361,7 @@
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
@@ -3384,7 +3385,7 @@
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
@@ -3396,7 +3397,7 @@
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
@@ -3411,18 +3412,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3637,14 +3638,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{384400D2-A460-4586-A1C8-CB0FC6022749}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2607210-1564-4AA0-AEAB-2C287BE08D39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3657,6 +3650,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="e46aec49-8cf6-48a8-8559-727d57aec09e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{384400D2-A460-4586-A1C8-CB0FC6022749}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
